--- a/medicine/Enfance/Jacques_Pasquet/Jacques_Pasquet.xlsx
+++ b/medicine/Enfance/Jacques_Pasquet/Jacques_Pasquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Pasquet, né à Chamonix (France), le 12 mars 1948, est un écrivain et conteur québécois d'origine française[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Pasquet, né à Chamonix (France), le 12 mars 1948, est un écrivain et conteur québécois d'origine française.
 </t>
         </is>
       </c>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Pasquet est né à Chamonix, en France. Il fait ses études en Sciences de l'éducation à Nantes[2].
-En 1973, il quitte la France pour s'établir au Québec dans la région de l'Abitibi. Il y enseigne au niveau primaire[2].
-En 1978, il déménage à Montréal et commence à se consacrer à la littérature jeunesse[2].
-Il donne des conférences et des ateliers d'écriture, autant dans des écoles du primaire ou du secondaire qu'avec des groupes d'adultes[3]. Il travaille parfois comme consultant, conseiller pédagogique et comédien[2],[4].
-Il contribue à fonder le programme de certificat en littérature jeunesse à l'Université du Québec à Montréal, où il enseigne comme chargé de cours à partir de 1990[5],[4],[6].
-En 1988, il obtient une bourse de l'UNESCO pour effectuer un séjour de recherches sur la littérature de jeunesse à la Bibliothèque Internationale de la Jeunesse de Munich en Allemagne[7].
-Sorti en 2010, son livre Mon île blessée se retrouve finaliste au prix Tamarac en 2011[8]. Cet ouvrage est aussi traduit en plusieurs langues[9],[10],[11].
-En 2011, l'auteur publie Le Père Noël démissionne, une histoire surprenante qui traite de l'épuisement professionnel avec «humour et dérision»[12],[13].
-Son livre Mots doux pour endormir la nuit est finaliste en 2012 au prix TD de littérature canadienne pour l’enfance et la jeunesse[14]. Lorsqu'il écrit de la littérature jeunesse, Jacques Pasquet refuse d'infantiliser son lectorat:  «Je trouve que trop souvent, c’est une littérature qui est infantilisée, indique-t-il. On évite certains sujets. On ne veut pas de sujet difficile. Moi, je n’écris pas pour les enfants. J’écris en sensibilité avec l’enfance[15].»
-Comme conteur, il est invité à divers événements et festivals, autant au Québec qu'en France[1]. Il a entre autres participé au 15e Congrès et Festival mondial des arts pour la jeunesse, organisé par l'Association internationale du théâtre pour l'enfance et la jeunesse (ASSITEJ) en 2005 à Montréal, ainsi qu'au Festival La crue des mots en 2017 à Mont-Joli[16],[17].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Pasquet est né à Chamonix, en France. Il fait ses études en Sciences de l'éducation à Nantes.
+En 1973, il quitte la France pour s'établir au Québec dans la région de l'Abitibi. Il y enseigne au niveau primaire.
+En 1978, il déménage à Montréal et commence à se consacrer à la littérature jeunesse.
+Il donne des conférences et des ateliers d'écriture, autant dans des écoles du primaire ou du secondaire qu'avec des groupes d'adultes. Il travaille parfois comme consultant, conseiller pédagogique et comédien,.
+Il contribue à fonder le programme de certificat en littérature jeunesse à l'Université du Québec à Montréal, où il enseigne comme chargé de cours à partir de 1990.
+En 1988, il obtient une bourse de l'UNESCO pour effectuer un séjour de recherches sur la littérature de jeunesse à la Bibliothèque Internationale de la Jeunesse de Munich en Allemagne.
+Sorti en 2010, son livre Mon île blessée se retrouve finaliste au prix Tamarac en 2011. Cet ouvrage est aussi traduit en plusieurs langues.
+En 2011, l'auteur publie Le Père Noël démissionne, une histoire surprenante qui traite de l'épuisement professionnel avec «humour et dérision»,.
+Son livre Mots doux pour endormir la nuit est finaliste en 2012 au prix TD de littérature canadienne pour l’enfance et la jeunesse. Lorsqu'il écrit de la littérature jeunesse, Jacques Pasquet refuse d'infantiliser son lectorat:  «Je trouve que trop souvent, c’est une littérature qui est infantilisée, indique-t-il. On évite certains sujets. On ne veut pas de sujet difficile. Moi, je n’écris pas pour les enfants. J’écris en sensibilité avec l’enfance.»
+Comme conteur, il est invité à divers événements et festivals, autant au Québec qu'en France. Il a entre autres participé au 15e Congrès et Festival mondial des arts pour la jeunesse, organisé par l'Association internationale du théâtre pour l'enfance et la jeunesse (ASSITEJ) en 2005 à Montréal, ainsi qu'au Festival La crue des mots en 2017 à Mont-Joli,.
 </t>
         </is>
       </c>
@@ -553,8 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans jeunesse et contes pour enfants
-Des animaux pour rire, Montréal, Éditions Ville-Marie, 1982, 21 p.  (ISBN 978-2-89194-060-3)
+          <t>Romans jeunesse et contes pour enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des animaux pour rire, Montréal, Éditions Ville-Marie, 1982, 21 p.  (ISBN 978-2-89194-060-3)
 L'Enfant qui cherchait midi à quatorze heures, Montréal, Éditions Ville-Marie, 1982, 28 p.  (ISBN 2-89194-054-7)
 Mystère et boule de gomme - roman, Montréal, Québec/Amérique, Collection Jeunesse/Romans, 1985, 127 p.  (ISBN 978-2-89037-251-1)
 Méli-mélo - roman, Montréal, Éditions Québec-Amérique, Collection Jeunesse/Romans, 1986, 121 p. (ISBN 2-8903-7314-2)
@@ -577,55 +596,193 @@
 Le Père Noël démissionne, Montréal, Hurtubise, 2011. (ISBN 978-2-89647-534-6)
 Ça suffit!, Saint-Lambert, Dominique et compagnie, 2011, 59 p.  (ISBN 978-2-89512-897-7)
 Coucou bébé!, Montréal, Éditions de l'Isatis, 2011, n.p.  (ISBN 978-2-92323-478-6)
-Sauvage (version courte et version originale), Montréal, Bayard, coll. Oserlire, 2018, 24 p. / 46 p. (ISBN 978-2-89770-143-7)
-Poésie jeunesse
-Mots doux pour endormir la nuit, Montréal, Planète Rebelle, coll. Petits poèmes pour rêver le jour, livre avec CD audio, 2011, 36 p. (ISBN 978-2-92373-525-2)
-Documentaires jeunesse
-Étienne Brûlé : coureur des bois, Montréal, Éditions de l'Isatis, coll. Bonjour l'histoire, 2013, 79 p. (ISBN 978-2-92323-490-8)
+Sauvage (version courte et version originale), Montréal, Bayard, coll. Oserlire, 2018, 24 p. / 46 p. (ISBN 978-2-89770-143-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mots doux pour endormir la nuit, Montréal, Planète Rebelle, coll. Petits poèmes pour rêver le jour, livre avec CD audio, 2011, 36 p. (ISBN 978-2-92373-525-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Documentaires jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Étienne Brûlé : coureur des bois, Montréal, Éditions de l'Isatis, coll. Bonjour l'histoire, 2013, 79 p. (ISBN 978-2-92323-490-8)
 George-Étienne Cartier: père de la confédération, Montréal, Éditions de l'Isatis, coll. Bonjour l'histoire, 2015, 81 p. (ISBN 978-2-92430-958-2)
 Le Saint-Laurent, Montréal, Bayard Canada, coll. Découvrons les fleuves, 2015, 32 p. (ISBN 978-2-89579-650-3)
 Frère Marie-Victorin : un botaniste plus grand que nature, Montréal, Éditions de l'Isatis, coll. Bonjour l'histoire, 2016, 88 p. (ISBN 978-2-92430-982-7)
 Notre environnement, Montréal, Éditions de l'Isatis, 2018, 55 p. (ISBN 978-2-92476-948-5)
-Sucré, salé, poivré et compagnie, Montréal, Éditions de l'Isatis, 2019, 48 p.  (ISBN 978-2-92476-982-9)
-Contes
-Paroles de terroir, Montréal, Planète Rebelle, coll. Paroles, livre avec CD audio, 2008, 64 p.  (ISBN 978-2-92252-884-8)
-Ouvrages collectifs
-Jacques Pasquet, Myriame El Yamani et Nadia Baribault, Parlures d'Acadie, Montréal, Planète Rebelle, livre avec CD audio, 2007, 92 p.  (ISBN 978-2-92252-876-3)
+Sucré, salé, poivré et compagnie, Montréal, Éditions de l'Isatis, 2019, 48 p.  (ISBN 978-2-92476-982-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Paroles de terroir, Montréal, Planète Rebelle, coll. Paroles, livre avec CD audio, 2008, 64 p.  (ISBN 978-2-92252-884-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Pasquet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jacques Pasquet, Myriame El Yamani et Nadia Baribault, Parlures d'Acadie, Montréal, Planète Rebelle, livre avec CD audio, 2007, 92 p.  (ISBN 978-2-92252-876-3)
 Sylvie Lavoie (Dir.), Des grands chefs et des écrivains: de Montréal jusqu'en Gaspésie, le Bas-Saint-Laurent se raconte entre terre et mer, entre mets et mots, Rimouski, Quatrième Mât, 2014, 187 p. (ISBN 978-2-98148-331-7)
 Franz Benjamin, Angèle Delaunois, Simon Boulerice et. al., J'ai quelque chose à te dire, Montréal, Éditions de l'Isatis, 2017. (ISBN 978-2-92430-996-4)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jacques_Pasquet</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Pasquet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Sélection White Raven 2009 de la Bibliothèque Internationale de Jeunesse de Munich (Allemagne) pour le livre L'étoile de Sarajevo
 Finaliste en 2009 au Prix TD 2009 du Canadian Children'a Book Center, des prix littéraires 2009 du Gouverneur Général du Canada. du prix Marcel-Couture du salon du livre de Montréal, et lauréat du prix illustration du salon du livre de Trois-Rivières pour le livre L'étoile de Sarajevo
 Finaliste en 2012 au Prix TD de littérature canadienne pour l’enfance et la jeunesse pour le livre Mots doux pour endormir la nui
-Finaliste en 2017 au Prix Hubert-Reeves pour Frère Marie-Victorin : un botaniste plus grand que nature[18]
+Finaliste en 2017 au Prix Hubert-Reeves pour Frère Marie-Victorin : un botaniste plus grand que nature
 Finaliste en 2023 au Prix Albertine pour le livre Mon île blessée</t>
         </is>
       </c>
